--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/17_Bingöl_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/17_Bingöl_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662A3E79-C09F-47D4-9A73-3CCFFFB922F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4351E987-AFBA-4F23-ABA2-D6D1008FCBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{27D0305C-0F5C-4777-BE28-11504D1D1BC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{B5292FE9-8E77-44B3-BC61-4BA8F939F2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B87FCDFC-6E4F-4CC2-B702-FB9DDEE2F5DA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{72A27CB1-B811-403C-B9AA-F4D78812A693}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DD3963EC-228B-4463-92F2-368EC215F84B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{197876BC-D3C3-4782-9587-5930AD04D1EE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{16510DF5-162A-412B-8431-53B7303CEB90}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{67726B5D-F032-4B70-A87F-90110AC7814F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0C201399-290B-45EE-A4BA-098F660EC711}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9C02C0AA-1860-4094-95F3-E2A2BE821562}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FE0DD73A-408E-4575-9EFF-4EBDBD13E762}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7E697EE9-790C-4093-8B7F-BA5410D1F325}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{08DCF4E2-9BE2-4C91-9E73-E31BE0C44D09}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8CEED695-4F46-443C-8F83-54326307C480}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2431161C-D08D-4DC4-B72D-746167B9CFD9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{35A89DB5-C2C1-49D0-8685-6111BAFC5A2F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088A4CD2-F5F7-4BF8-85FC-E631BF7E072F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4B9F0-5A35-4774-BF60-730D9CECC959}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2512,18 +2512,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C07BFDCE-917F-438B-9962-CD04C0E5582D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8041C0D4-3E4F-47EA-9552-2120F67729E2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6450C3A1-F330-4633-8DDA-247A1A52EB4F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87B001DA-E4B6-41E0-A3B9-79CE25D7A134}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0CDAC38F-58EB-4895-8808-F9A083E9B7A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1981074C-9F49-4A79-989B-C2FF5D7DCB29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A46E5337-508F-4BED-91D2-D77E2C303AAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D912ECDB-50C6-4671-911C-9277F84C8786}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A16A8914-7683-4CFB-BB40-6D6153B23B63}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B6B7250-C592-4E27-9D55-5AB01CE0454C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0C90AC7-06B1-47F2-9433-9119BDBD15C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E0A0BB6-376D-4909-85A5-698803A5D0AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{738B6D03-F54B-48E8-B1C2-1636E9BF85CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D8AA3C6-978D-4CAE-BB3F-2DC5F1AD652E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{871342B3-5769-4D23-8682-DB8ED7A39501}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7DBAEC30-8409-4153-90A2-FBA5A03E0A14}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{883F791D-6F4C-47C4-92E0-0A93D5172144}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A1835EA-C0D4-4067-8A27-99F770E04F51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10B0E325-0538-4EA3-A7D6-4B4D13A4822F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB2DEB2B-BA28-4261-B324-758DCC1601A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{451CFC9F-AE57-4D9C-9690-3335F0EEE8EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5153625E-E927-4699-9545-666EA586F171}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F245FF8-19E1-4D9A-B035-91BB91F6CC80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64F4B7D0-5F91-4004-B295-2040BD333BF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2536,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3112942-07EE-4A0E-9E0F-E37CD2FB3BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1056CC8-E4F7-44AE-9403-0FF9941CA9EA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3716,18 +3716,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B010882A-E7BB-44F0-8F5A-F3E38B8FE527}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{146A5DCC-7660-49BE-9B23-E7925062CEEF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E69E3FB9-65AE-4D14-A2D9-F71DE63C7CAB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7C0B3D35-AE13-4FCD-B917-991A55729D09}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8745DC6E-CADA-4AFA-A970-4BB12CE858B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDBB387E-F936-48CA-AE93-AE727FAA786D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14A630C8-8596-451C-A3FF-2EE9B1A3A23A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A96E1E6E-9E7F-49DB-9B76-20D8DC762A6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CE9FAB1-AF4D-43EC-873B-7F75566FAE45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3728BB28-4204-4CE5-B7B5-49F9C69EDB4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32CE28DD-F204-4D68-89E8-4B4AAD46B78A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC32247A-272D-4E17-8EA6-86BA94DC2F76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAC89993-4255-4B3C-BEB3-7C961C580DE0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF74C256-A6E3-46F5-A7B4-02210C30EC09}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E8FA3DC-9327-41B9-B8B1-69CD93E40AD4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{281A372C-D6C7-4EAC-9328-F81722A6F1AC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B3DF1B1-301F-43A7-A909-0FFE68B0B589}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{093D3DDD-C621-4DBF-96FF-C03CCDD4E59F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{000209C3-5BFA-4361-994C-489EE2C147F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{806EE3DB-F3A6-43C8-80FC-BA6CFAE471C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F045BF32-AAC4-4A64-830E-2829F696B9C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA3727BA-9464-4D8C-BD7A-052142330A81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA3A91C3-4C1E-4F87-B999-87FB167A8F2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03ABA986-68FA-4473-AB81-E582DEB740AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3740,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355D49C6-6AB2-43BC-B6D4-ABB1C84C0D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2308521-364D-4407-8304-DCCE84BEDAD6}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4920,18 +4920,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5B9BD7A-7C68-4AF3-B3B7-C432461122C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAD78801-954B-4936-8A9F-895ED048268A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F6C6D04D-74EF-40D2-B5AA-22998F9F3183}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD2B6F96-268C-4CE7-8D73-73E543862F96}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52D49C3B-4F90-496A-B69B-5074129C6E62}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5ED4545-F869-4E51-8B8F-0F625646281F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8492888F-AFB6-4403-B069-4CE27C32C003}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CCBF76C-31DC-4912-8581-CF3ABC19DD5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86FB5F0B-F310-4193-820A-2C3C1D4C1B31}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42F57F5C-08A9-4798-BE5E-560E45EFA723}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51C1FC09-24E5-4BC3-B33A-2B1804CCFC0E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55017A97-4676-4C89-ACBF-8BC0B1BD66B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46D8EA8C-DD40-48EB-BD25-10F0E9E456EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6959A136-9869-4362-B85A-ECB3B0AD9107}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44A03F86-E282-4640-85BC-2DAE7ACBF0C7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0157821E-2F81-4D6D-BF55-D45948527CEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F170611E-F447-4E12-BD84-917C75B4C4D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D97A08D9-1066-4B82-B061-28D75B8A599E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8714749-1365-40C1-9EEC-0556530F49F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A96502E5-C4AC-43B3-AE5A-F4111EA33961}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98B46B28-918A-41C4-92E7-ABC9CEDE15AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A43843DF-39C1-4A50-BC5F-1FDB414E8D5E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF2C3F68-0260-44E4-BF4C-4CA05F38FBB5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFFCC4D3-4FBE-4BFF-85D5-FB3C0DBC2D1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4944,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326A5E1-93C7-46E2-9117-53182CF1ED51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2D7747-79B7-4F20-A4EE-E234E8C5751C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6124,18 +6124,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CB7B2F8-7ED2-434B-AF8C-647359530F3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F55B7BE-889B-4377-81E8-B2AB97DEECFB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3B4B015-EAF1-40FC-84EC-BF68E143AADE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9A3AFD0-F911-40F4-9B7F-E2107817A473}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1FF1EA8-7B77-44EA-B832-1E9F6B2E3F5C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6946B64-6F36-4A54-A9B0-5B404F6E0049}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F5FAC76-27EF-458C-BA5C-F98545BE348D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{095777B3-2927-4E9B-BE22-D07F610E8E0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3351ABC0-383D-4BDD-A6C3-523F189D52A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{82E9E427-CD37-40FB-BEDD-16C96E01F2F8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43DEFC1F-4B3A-41DA-8102-C5FB2ABA8E03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94A6EB7C-9564-4F47-BDF5-4218C648A42C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F3FB1CF-167B-4FB2-A8C4-E09FDF1A78C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAC13451-969B-49F7-B9FF-5E4080FB9BB9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0671F596-F46A-4C7B-A638-18BD271653D9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64C6AF2C-9CE9-4216-A9D4-33EDFCBAE252}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD3BCDF1-5616-4586-87C9-84ABF500921D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{507323C2-48EB-4720-B8B2-6374111AE421}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25C2DCC9-C2C7-4A0E-809F-2C51E9D9F675}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7ECEC16B-F0B2-4CBE-BD3D-E3C7ACDAAC4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCA35C15-3E7F-42E4-9184-09D5B8B3EE79}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D475A365-9E37-478A-9C31-DB155B7EAE25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E76730B-665E-4BD2-A8CE-AC87369ED194}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D9BAE33-AE85-4174-BCC9-9A1A3AF23D7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6148,7 +6148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962B7AAB-4476-41FC-ABE0-916E4F30DA45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301A04AF-BC29-4E87-8C80-33089BC88831}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7345,18 +7345,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C35AD8A5-C721-4228-983D-A087FEE1D7A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EA826C0-9417-416D-AE66-D5E55562CBFD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B9EA7B7-56B4-4ECF-87E4-0D75AFEFE3BE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8377478-DA11-45AD-A585-BA86C2CAB430}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1CC033C-CA86-40D8-AE7E-241108900BF8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93EF972F-CB4C-486A-966B-333E1B199326}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C832144C-1A3F-4D47-B0EA-ED42AC7BB477}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48D0640E-FF94-4104-BAE5-00047B48AC91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07F3CFD9-0AAB-4BA9-8A6C-7B934C3F4318}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1F047B2-84CD-4435-B7C9-C04B9F508D00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{919CB015-C2C7-4046-ADDA-E5097F3FC87D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDE3524A-FE6F-4E65-9776-F6C65C698485}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A3A3645-F74F-4AA0-B527-542B1F0E3AC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{440C72FE-7D82-48F4-BE40-E606390B46E3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DE8FB77-8F03-47D5-9077-132AD0BDC259}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE3E9995-D3AC-40FF-9655-ED84C5066C96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D463F5A-1C6A-4206-A20B-66DF9D61EE42}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC86A1DA-5CAB-4889-BE89-CA84FDB20F37}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DBE73E6-9166-4EDB-AE45-CF2CD5918E1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14C2F634-1B07-4ED5-89CB-EBB364891FF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF58834A-90EB-426F-9D1B-E310755BAAC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7384D3AA-0592-49C3-A46D-716A8CAA31EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE4CAEE0-C28B-441B-82B2-CD70AECF4C72}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6097E84E-C9CE-45C8-83DA-E85C22F03A03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7369,7 +7369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364E8D6E-EA99-44DC-8EF4-3BA834072BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54440868-71A4-419D-B3B7-E4A676B6B756}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8568,18 +8568,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5DC0EA7-597C-4096-B68B-70044DD6EF61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9936381E-E52D-4B1F-9D56-18C367C5919A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82AD9F41-7071-448F-B01A-7A0556F2C896}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2DC4F4C-2C24-4D1F-82A5-432E03DD4C1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47F96E34-9A5F-4379-869E-981C92C07283}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0DB5FAB6-1433-49FB-8484-36303A6A594E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0CA6EA7-ACBE-4B1D-89BE-0D0E810075B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAC4E978-5199-4A3C-A636-401791C78720}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E04D3627-7316-453A-A538-14F944EBF633}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FA4E6A4-DBD7-453F-98B2-F62B47073C12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E40B11F-0466-4DF9-A1E4-F668A0A6D13A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5059A17-29DE-4144-8604-A04465E68C13}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A4199A6-B4F0-4C18-AB97-41E545282C1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{620A9F39-1639-423A-B083-AD19E59D0290}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3939F627-13E6-4AB5-A3ED-446B79D68939}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD4324F7-61C9-4E4C-BF1B-689C601C0E08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75A73CBE-5D61-4C68-8F4B-2757941BCA40}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B59107E2-925C-43DA-B7A4-1FCC9F090DCC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EBD558C-9222-4F2D-8337-0A9414C3945D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2CF5B96-710B-4A6E-8986-1DFD921B23E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A4CE71E-19BA-4F31-9D41-9CD00EDA9E54}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A015C40-FB44-481B-A8A7-C068CD8549F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEE858C0-66CE-43F5-9F46-51718A011F6B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D60B1050-A3A9-4202-B951-044519DB5C9E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8592,7 +8592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC506EE9-C2D6-4D34-9C1C-9021AB1BB41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DA10D7-A75D-47D3-855A-40F782EA99D5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9787,18 +9787,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC1946BA-E5BC-4801-ACC7-F49049D106F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34C1C11E-FD5F-4467-8913-A42DFC3804C5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF533F40-7B5A-43D2-B7E6-9D61CCC44F43}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54D7B946-9388-44BE-9784-6C72CC432F7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F8BCA37-46BF-4038-9620-49C7DE36DEDA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA468E60-8530-43B7-B24A-01E674A8AAA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFE2F516-A1B6-48D8-AD81-890B5283A043}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E058E363-0E1B-4A95-B9A7-D089B977285B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20F52A2F-65BD-4FC0-97CE-1209749A2647}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC8CB396-02CF-4FA6-A252-FAE3C5FF9DE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{734F01DF-8958-4105-9266-2D5B378BBE56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8393FDD0-EFFE-444B-B5E3-0F205DA58843}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23F9EC26-DC4D-4C79-9D48-30F72E3CE0DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B521A1F7-0F1A-4D72-9D41-AB0C12840A73}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF5B50EB-B945-4A89-BBDB-66EB7DF6C00B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3BC29773-D173-42BB-AE9D-1F23046721D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75882E2F-4502-45F4-9457-AB9A3C2C5982}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD665D51-08A6-4175-80FE-763C8E6A1785}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D9C6594-A8D0-41E7-8640-AD42E3D50A09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40153863-E4B6-4FDB-9F19-55A502A6088E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14B93C8E-876C-46B8-997B-48270D343F78}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B0A3420-A859-421D-A535-633D8FE09630}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FA0581E-EE1A-4ECB-A782-7C28F8458EE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78DFC57C-3342-4FA4-9D20-7722FDF882F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9811,7 +9811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047937EB-2430-47BE-82EA-3C159D983E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D04524D-239F-4A66-B5E9-40F9910E86EC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11000,18 +11000,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{396775F3-2485-4BB7-8760-DB24EAC0E81D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12FF6181-B2C4-4155-B240-42C9D0D46CD4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D8CFB17-6CAA-4EFE-BC82-EBBC569E196F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF6B72C5-1E69-45D4-83F6-A573491BFE49}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26EAE217-B00F-43D8-91BC-16B7F0AFCC84}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F05A4BED-9913-452F-9DF0-0760ED1D256A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B9B5F65-D24D-4403-865F-185E03CF8525}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C62E3292-96A6-4AC7-B63C-F62CF3A6E83C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{239832B5-1D8D-423F-B37C-0E71BAF5620A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0DBC5A3E-24AB-4905-B9A4-81BF195B19D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4723F13-29BA-42D5-8382-93D6CB38E651}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{587DBD73-A3CE-4B65-A9E6-2043597D686C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2BC502E-DDC7-456D-B6C7-DD0FFDB70AFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDD6107A-BA59-43F9-849D-1527051E7FA3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9D9C265-4CD9-43DE-A69A-1E28C781D067}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{065816EF-53B7-465B-B813-652409BB5E25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3486577D-4334-4970-95A5-5C03E44111A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F1496FF-43A8-4CDA-A83F-FC7D01C524C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9892953F-0591-4F3F-BA8F-1E2359222877}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8350296F-D1F6-4557-9FFD-C3793C6886CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8BA02F1-3264-4BC1-8D90-DA6DBB07E015}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6825828C-D965-4B4C-90B8-12C46537A23D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47536962-C0D9-467D-A5F3-7407D86B3C65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5036C378-85AD-4A0F-B175-0D260913EF88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11024,7 +11024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B0DA5-AC9C-4EEC-B84E-53BAD21A9A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C4616E-9D22-4396-94FE-9098ECBDC141}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12213,18 +12213,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89C00149-2587-4B18-80E9-D30D4668C820}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0531D84-4881-40C7-BDCA-6BAC49A84023}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F65BCBDB-518A-4EB1-AEC9-50FB18DA6DAF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E858EAB4-DD58-4789-A786-7FA9D99A74D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5EF0841D-1CFC-47D7-8E85-8FEA44E5A7C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30DF7D0A-79F6-4757-81BC-CCFBC6A0514B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6F6481E-ACC9-4350-8568-5F178A9EE290}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D5C7572-4DDF-4CB0-90ED-B3B4734204FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0CD558F3-863D-43B2-A404-9402D88678E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5C1F3E7-C276-411B-865A-E97434B131F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16FAF4AB-C2B2-44A7-95C9-783081F9F675}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8D3B707-1410-4713-9373-A6049D4E772A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7E63304-C5D6-450D-9C28-39F9F5EE77B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0ED1B262-B665-4AC1-8CEA-AA5D47CF7A23}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDA07E66-EE3B-40C8-A49F-6FC5FF7AF581}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4FF6A858-AFC5-4ED6-90AD-03EA3F95FCA5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED1305DF-49B6-46D6-89AF-F4F257057E2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E558B117-DE15-48F6-ABD7-44B71B881960}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE140A7B-B461-41B2-9764-D46BC4845929}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E157E909-4458-4907-BBCA-5D5A95186910}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD51A090-7EC3-44A2-94AD-49228E9B3185}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04E6C2DB-EC66-4FEB-A01F-65182687073D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1695075-C3BF-49A7-BDF9-ADE954316292}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2FFABEC8-F4E1-41DD-A072-5A229CC4D874}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12237,7 +12237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B950251-894D-48EF-9591-9289A741F00B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1EEDA-F868-45B5-B602-AA381DC32B20}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13426,18 +13426,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81196F06-2229-4327-BD90-A3D503DA3E2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAF5FFDD-AC16-4280-95B4-7A1EDE5A4751}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C0624EF2-D868-410F-A609-7F046ECEC168}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AE8982A-D54E-4909-8799-CA9C05825F2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1E914F6-6ED2-4774-96A7-C1553F81E559}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2473A06-40FC-49E9-8EEA-D5C9B20214FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D65781A5-09DA-4518-9D77-556E10F26F46}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE5674FA-ABBC-4FFA-AAD6-F9FC78D99B27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C07DA84-F446-4803-BE0D-0628D6917980}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E5E1AE5-A28D-46B6-8FB7-5C2645E8D0BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE9D573A-E94F-4EC9-90E5-75CAA11B505A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F60C7EAF-1830-438F-ACEF-2A4651751C7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FA07330-1C27-4EF6-AD67-12773713CC4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A780016E-989D-4344-9D96-DD90C1F3CEC1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{53C17D2A-2E50-4C8E-AC65-3AFF25509642}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CC88D4A7-7FD8-412A-B02F-03FF1E56CAE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4355B295-A8F3-4F66-8D2E-0FD9E97B90CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AA8F8C3-4DC7-41D8-B52D-DDB52AB84D71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15F62DC2-EC59-4770-ADCA-C49A8F5AC9FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CED78B7A-DBEA-4E27-988D-87AF694CA99A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0820AF40-D738-4108-9669-314CD4BF319A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{309115A1-D810-4B03-B80C-7131EE5A79AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A318CE7-10A1-48B6-87BA-02B38423F199}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87C41EEB-60DF-4D84-9E2F-9ACB38828A80}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13450,7 +13450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF88686-25BC-42DC-823F-D505C1E6F50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3AEF83-C9BD-4019-BF34-66EE3BACC190}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14641,18 +14641,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{729CF22B-3716-4C69-B22C-FD6F92B216E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A266C283-721B-42C9-89FB-A924855A9FAD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D0906A4B-A620-4A89-B131-3715FDCF46F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{76FEA321-F66A-4688-B56B-A31F802C3FE3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7A22D18-4837-4C9E-8ED9-22426CF7FD7D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBE813B6-2D76-47EF-9AAC-D0BDBB7D034C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{57ADD8E5-CFA0-41EE-83FB-7197F4700F3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D202D320-B58C-4183-A2FB-C9DC3B6BD183}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24C650A7-3849-4C8B-8DD0-A9B83275CDA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{79498EA0-443F-43AA-80F2-DAF5A59A1FF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FEBF4B0-8211-4EDD-A865-E1C3F165C20E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D1F03FF-F7C5-458E-BF28-13886F6F4010}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE6FD3B0-43FA-429D-A6C7-2240022A5BFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{603F2C6A-EE96-4A89-933B-D2C4EAA0F0C3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BC93D84-1F5A-4E81-B2A3-7AEFFF234899}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1DD60F5A-A432-41C6-8762-A32A18B66764}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{111BD653-EC34-4167-874E-F8A5AC1C30BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50067BF1-9C33-4BA8-9E72-F1D3800A760A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0564A7C-645D-420D-B08C-E3FD9BBFC0D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86D68006-4473-4062-B8C1-DD0EAB887044}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B19C6A66-779E-48AC-A903-4BA182DB4085}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B92AD9D-CB80-4570-BDD1-EBBB57A75CDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E45A6470-20A9-4948-B246-2DAC684C4692}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{926741DD-5FE1-4D95-BE7E-ECF0E0E70EBC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14665,7 +14665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CEB9B3-F258-45D6-9832-42A127AAC0F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97AE7FD-CF16-4CBF-8D0C-4FC1AAD3E6DF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15856,18 +15856,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB051491-8B18-42B6-9B29-2377A0FA21CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F16F5D8-9819-4248-9147-89925EF93166}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B4F4B71C-13B9-49AA-95B1-8837BB13A985}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92030F6F-9FF1-424C-8C82-37BC20AAE7E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55E3B500-3221-444B-8137-75E25F00219D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F5D6E68-E8CC-4C4D-938F-73680B45761A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C23C91C0-2853-412A-9BE6-408CACF8E2FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E701216-9E26-4CA2-8052-7365C6A2EC85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65813048-CC98-44C1-BBED-F1C8F44FA4A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{078B9B81-1436-4238-B008-89700BC3845E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27668B9D-E22F-4DB7-A8DD-A89EF0F77566}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2883D48-53DE-495A-BE44-DC7E949DAAC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F91B9BB0-D3C2-4BCB-B1D2-C4A0B1289280}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{351C6677-9BA3-45CF-80C7-D74F272BF3CC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE2A7D64-ACB1-494C-B0AD-B7F8C300AF3D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7ACE13D7-B392-4187-B05F-0EC622B70548}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F03585B-7397-4870-954B-E0EC2532CD91}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6600E75-ABBF-40A3-9C28-255611E5B3FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CC10CF3-9D87-4974-B1DB-11382D5C3764}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B538AC5-8576-4374-A5EE-3BD9AA8724A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{554D9F4E-1968-429C-838F-22C53E4AF79C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C417D82-3517-4349-AA25-F3FC07A398C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46ECD2EA-6D6B-4DCD-B342-59C6F826038C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB394EBA-B77C-4A63-857C-C1FDA17BCA37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
